--- a/03 Matrices and Data Frames/CensusData.xlsx
+++ b/03 Matrices and Data Frames/CensusData.xlsx
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
